--- a/readme_korsakovaolga172-2.xlsx
+++ b/readme_korsakovaolga172-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kors/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72954F72-288C-8E44-A7CB-8134716CF5EF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D520F0-1793-4248-8841-3868C439BB49}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13640" xr2:uid="{16658BA5-89A3-974A-BEF7-B1A2216A7E17}"/>
   </bookViews>
@@ -268,6 +268,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="825500" y="609600"/>
+          <a:ext cx="10058400" cy="5655088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>168688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097D971C-DD35-1845-8987-CAFD9C6F4EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="27838400"/>
           <a:ext cx="10058400" cy="5655088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -579,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEE6E5-1D36-024F-98CE-F72CE6B473FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/readme_korsakovaolga172-2.xlsx
+++ b/readme_korsakovaolga172-2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kors/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D520F0-1793-4248-8841-3868C439BB49}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7035D9-1BBF-A34C-A827-F436A84F095D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13640" xr2:uid="{16658BA5-89A3-974A-BEF7-B1A2216A7E17}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13640" activeTab="1" xr2:uid="{16658BA5-89A3-974A-BEF7-B1A2216A7E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>GRAB - в переводе с более точным оттенком "схватить грубо".</t>
+  </si>
+  <si>
+    <t>CLUTCH - в переводе с более точным оттенком "сжимать крепко".</t>
+  </si>
+  <si>
+    <t>Первый глагол может использоваться в отношении многих дополнений: arm, knife, her/him e.t.c.</t>
+  </si>
+  <si>
+    <t>Второй глагол подходит больше для употребления его в сочетании с неодушевленными дополнениями: bag, pencil e.t.c.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,6 +337,211 @@
         <a:xfrm>
           <a:off x="1651000" y="27838400"/>
           <a:ext cx="10058400" cy="5655088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615546C7-3764-3D40-8068-2AF4C5D97C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="203200"/>
+          <a:ext cx="10058400" cy="5655088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6688D3C-B7C1-3B4C-A082-A51DAD7BA038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6502400"/>
+          <a:ext cx="10058400" cy="5655088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>168688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD790CAB-DA74-6B41-8493-BF7A6D12F9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="13004800"/>
+          <a:ext cx="10058400" cy="5655088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268DA890-E607-1B4C-B068-6DAB58217483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="19507200"/>
+          <a:ext cx="4724400" cy="6718300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEE6E5-1D36-024F-98CE-F72CE6B473FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
@@ -638,4 +861,40 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA7D14D-7121-3F46-93C7-8C68EB8EEAD9}">
+  <dimension ref="J118:J123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>